--- a/data/trans_orig/P33_MIN_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Habitat-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>42.85560971921439</v>
+        <v>42.85560971921438</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>39.3158234836394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41.33897076538285</v>
+        <v>41.33897076538284</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>36.83106865351674</v>
+        <v>36.82343837302628</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>33.99516585546193</v>
+        <v>33.98236852375431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37.06804791943603</v>
+        <v>36.91453919964835</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>50.81243000496973</v>
+        <v>50.67871944948768</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>47.57006326960154</v>
+        <v>46.12820581338919</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46.89363613503559</v>
+        <v>46.79784206133029</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>35.74485419259474</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>44.34889119810137</v>
+        <v>44.34889119810138</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>39.68582957807782</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>32.25627968538432</v>
+        <v>32.08121110502495</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>39.89464660003697</v>
+        <v>40.34016073259121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36.66630555458646</v>
+        <v>36.79009068076043</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>39.86289687375141</v>
+        <v>40.15549716733381</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>49.13139532168521</v>
+        <v>49.61567129480824</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42.81666218893417</v>
+        <v>43.37558799649605</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>35.57753986581429</v>
+        <v>35.52873604681301</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>26.06208740211851</v>
+        <v>26.83266968608903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32.72688657487857</v>
+        <v>32.35559859767336</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>46.63156439735552</v>
+        <v>46.44044021438157</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>35.25911866490141</v>
+        <v>36.11022199814455</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39.69760716925774</v>
+        <v>39.84419096684941</v>
       </c>
     </row>
     <row r="13">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>36.59218926949139</v>
+        <v>36.5921892694914</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>35.15636736914509</v>
+        <v>35.1563673691451</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>35.89997660920594</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>32.99352869128173</v>
+        <v>33.09943178738337</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>31.30547670551041</v>
+        <v>31.53691131775956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33.22498981345349</v>
+        <v>33.37884472508055</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>40.61441774364909</v>
+        <v>40.63185368638639</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>40.77061965076352</v>
+        <v>41.42846958040558</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39.22016207693908</v>
+        <v>39.39879925638151</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>37.51314009119479</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38.00974533433966</v>
+        <v>38.00974533433967</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>36.09333210673423</v>
+        <v>36.21181734984225</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>35.10217169719041</v>
+        <v>35.2512306707311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36.36346386226522</v>
+        <v>36.39900466805397</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>40.74831184964683</v>
+        <v>40.92016884620477</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>40.2034763140684</v>
+        <v>40.12369419331836</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40.09760914575283</v>
+        <v>39.83051729213531</v>
       </c>
     </row>
     <row r="19">
